--- a/doc/2023年下期/【画面設計】オンエア管理登録画面（OnAirKanriToroku.vue).xlsx
+++ b/doc/2023年下期/【画面設計】オンエア管理登録画面（OnAirKanriToroku.vue).xlsx
@@ -202,7 +202,7 @@
     <t>5.【フォーム情報】</t>
   </si>
   <si>
-    <t>5.【DB情報】</t>
+    <t>6.【DB情報】</t>
   </si>
   <si>
     <t>（バリデーションチェックのエラー表示部）</t>
@@ -4871,7 +4871,7 @@
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="6" t="s">
+      <c r="G70" s="45" t="s">
         <v>51</v>
       </c>
       <c r="H70" s="6"/>
@@ -31356,9 +31356,9 @@
   <mergeCells count="12">
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C66:D66"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:I2"/>
@@ -31569,7 +31569,7 @@
       <c r="Y5" s="74"/>
       <c r="Z5" s="74"/>
     </row>
-    <row r="6" ht="102.0" customHeight="1">
+    <row r="6" ht="47.25" customHeight="1">
       <c r="A6" s="74"/>
       <c r="B6" s="54">
         <v>1.0</v>
@@ -57797,17 +57797,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D8:E8"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
